--- a/data/magic_formula_output.xlsx
+++ b/data/magic_formula_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishw\OneDrive\Desktop\VP\AI upskilling\Project Summit\GIT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA4B8B1-BF99-46A9-B5AA-D67799BFE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E36D9F-409C-4CF4-9BD6-EE0EE7270C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D244E291-84A1-4539-951E-A88D2A7227D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2ECE263-E667-4D51-AD6A-F7DC8353324A}"/>
   </bookViews>
   <sheets>
     <sheet name="magic_formula_output" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,9 @@
     <t>INFY.NS</t>
   </si>
   <si>
+    <t>TCS.NS</t>
+  </si>
+  <si>
     <t>HDFCBANK.NS</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>ASIANPAINT.NS</t>
-  </si>
-  <si>
-    <t>TCS.NS</t>
   </si>
   <si>
     <t>HDFC.NS</t>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8006ED-AE32-4519-87CB-88CB81F8AE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4969A66C-447C-4E34-811F-C80D3805F3E7}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1068,10 +1068,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>1434.3</v>
+        <v>1434.6</v>
       </c>
       <c r="C2">
-        <v>10239798673408</v>
+        <v>10241939865600</v>
       </c>
       <c r="D2">
         <v>0.495</v>
@@ -1080,7 +1080,7 @@
         <v>73.510000000000005</v>
       </c>
       <c r="F2">
-        <v>5.1251481558948597E-2</v>
+        <v>5.1240763976021099E-2</v>
       </c>
       <c r="I2">
         <v>26422414100000</v>
@@ -1113,7 +1113,7 @@
         <v>0.25251735482104298</v>
       </c>
       <c r="T2">
-        <v>0.133604287731519</v>
+        <v>0.13359801281213099</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>1438.1</v>
+        <v>1435.8</v>
       </c>
       <c r="C3">
-        <v>5961312894976</v>
+        <v>5951778717696</v>
       </c>
       <c r="D3">
         <v>0.34799999999999998</v>
@@ -1154,7 +1154,7 @@
         <v>67.459999999999994</v>
       </c>
       <c r="F3">
-        <v>4.6909116194979401E-2</v>
+        <v>4.6984259646190199E-2</v>
       </c>
       <c r="H3">
         <v>4496000000</v>
@@ -1190,7 +1190,7 @@
         <v>0.28895884866201899</v>
       </c>
       <c r="T3">
-        <v>8.7611706282508695E-2</v>
+        <v>8.7611692998917703E-2</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -1219,34 +1219,37 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>2004.6</v>
+        <v>3011.2</v>
       </c>
       <c r="C4">
-        <v>15385144328192</v>
+        <v>10894792720384</v>
       </c>
       <c r="D4">
-        <v>0.623</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E4">
-        <v>87.41</v>
+        <v>136.31</v>
       </c>
       <c r="F4">
-        <v>4.3604709168911501E-2</v>
+        <v>4.5267667375132797E-2</v>
+      </c>
+      <c r="H4">
+        <v>661270000000</v>
       </c>
       <c r="I4">
-        <v>48187671100000</v>
+        <v>1596290000000</v>
       </c>
       <c r="K4">
-        <v>7326106100000</v>
+        <v>93920000000</v>
       </c>
       <c r="L4">
-        <v>1823477000000</v>
+        <v>7960000000</v>
       </c>
       <c r="M4">
-        <v>175014900000</v>
+        <v>165340000000</v>
       </c>
       <c r="N4">
-        <v>861546200000</v>
+        <v>653310000000</v>
       </c>
       <c r="O4">
         <v>6.5000000000000002E-2</v>
@@ -1255,16 +1258,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q4">
-        <v>0.10549500000000001</v>
+        <v>8.6645E-2</v>
       </c>
       <c r="R4">
-        <v>0.24890125465149801</v>
+        <v>8.47529812606473E-2</v>
       </c>
       <c r="S4">
-        <v>0.203140470006135</v>
+        <v>0.25308046715954102</v>
       </c>
       <c r="T4">
-        <v>0.135444362070825</v>
+        <v>8.6445502663562795E-2</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -1293,37 +1296,34 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>1384.8</v>
+        <v>2003.6</v>
       </c>
       <c r="C5">
-        <v>18741159002112</v>
+        <v>15377469800448</v>
       </c>
       <c r="D5">
-        <v>0.218</v>
+        <v>0.623</v>
       </c>
       <c r="E5">
-        <v>60.17</v>
+        <v>87.41</v>
       </c>
       <c r="F5">
-        <v>4.3450317735412997E-2</v>
-      </c>
-      <c r="H5">
-        <v>1302860000000</v>
+        <v>4.36264723497704E-2</v>
       </c>
       <c r="I5">
-        <v>19501210000000</v>
+        <v>48187671100000</v>
       </c>
       <c r="K5">
-        <v>3695750000000</v>
+        <v>7326106100000</v>
       </c>
       <c r="L5">
-        <v>242690000000</v>
+        <v>1823477000000</v>
       </c>
       <c r="M5">
-        <v>252300000000</v>
+        <v>175014900000</v>
       </c>
       <c r="N5">
-        <v>1060170000000</v>
+        <v>861546200000</v>
       </c>
       <c r="O5">
         <v>6.5000000000000002E-2</v>
@@ -1332,16 +1332,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q5">
-        <v>7.9170000000000004E-2</v>
+        <v>0.10549500000000001</v>
       </c>
       <c r="R5">
-        <v>6.5667320570926002E-2</v>
+        <v>0.24890125465149801</v>
       </c>
       <c r="S5">
-        <v>0.23798070120829601</v>
+        <v>0.203140470006135</v>
       </c>
       <c r="T5">
-        <v>7.4371742634597796E-2</v>
+        <v>0.135454485903791</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -1370,37 +1370,37 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>408.9</v>
+        <v>1381.7</v>
       </c>
       <c r="C6">
-        <v>5121635778560</v>
+        <v>18697854910464</v>
       </c>
       <c r="D6">
-        <v>5.7000000000000002E-2</v>
+        <v>0.218</v>
       </c>
       <c r="E6">
-        <v>15.92</v>
+        <v>60.17</v>
       </c>
       <c r="F6">
-        <v>3.8933724627048097E-2</v>
+        <v>4.3547803430556503E-2</v>
       </c>
       <c r="H6">
-        <v>269720000000</v>
+        <v>1302860000000</v>
       </c>
       <c r="I6">
-        <v>880906800000</v>
+        <v>19501210000000</v>
       </c>
       <c r="K6">
-        <v>2848400000</v>
+        <v>3695750000000</v>
       </c>
       <c r="L6">
-        <v>450600000</v>
+        <v>242690000000</v>
       </c>
       <c r="M6">
-        <v>68904700000</v>
+        <v>252300000000</v>
       </c>
       <c r="N6">
-        <v>269269400000</v>
+        <v>1060170000000</v>
       </c>
       <c r="O6">
         <v>6.5000000000000002E-2</v>
@@ -1409,16 +1409,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q6">
-        <v>6.8705000000000002E-2</v>
+        <v>7.9170000000000004E-2</v>
       </c>
       <c r="R6">
-        <v>0.15819407386602999</v>
+        <v>6.5667320570926002E-2</v>
       </c>
       <c r="S6">
-        <v>0.25589502557661498</v>
+        <v>0.23798070120829601</v>
       </c>
       <c r="T6">
-        <v>6.8732240669423697E-2</v>
+        <v>7.4362463906249607E-2</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1447,37 +1447,37 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>14044</v>
+        <v>406.3</v>
       </c>
       <c r="C7">
-        <v>4415475941376</v>
+        <v>5089070153728</v>
       </c>
       <c r="D7">
-        <v>0.189</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E7">
-        <v>461.82</v>
+        <v>15.92</v>
       </c>
       <c r="F7">
-        <v>3.2883793790942702E-2</v>
+        <v>3.9182869800639897E-2</v>
       </c>
       <c r="H7">
-        <v>198142000000</v>
+        <v>269720000000</v>
       </c>
       <c r="I7">
-        <v>1319718000000</v>
+        <v>880906800000</v>
       </c>
       <c r="K7">
-        <v>870000000</v>
+        <v>2848400000</v>
       </c>
       <c r="L7">
-        <v>1942000000</v>
+        <v>450600000</v>
       </c>
       <c r="M7">
-        <v>51198000000</v>
+        <v>68904700000</v>
       </c>
       <c r="N7">
-        <v>196200000000</v>
+        <v>269269400000</v>
       </c>
       <c r="O7">
         <v>6.5000000000000002E-2</v>
@@ -1486,16 +1486,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q7">
-        <v>7.7285000000000006E-2</v>
+        <v>6.8705000000000002E-2</v>
       </c>
       <c r="R7">
-        <v>2.23218390804597</v>
+        <v>0.15819407386602999</v>
       </c>
       <c r="S7">
-        <v>0.26094801223241498</v>
+        <v>0.25589502557661498</v>
       </c>
       <c r="T7">
-        <v>7.7594758571543895E-2</v>
+        <v>6.8732414888514407E-2</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1524,37 +1524,37 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>3644.3</v>
+        <v>14068</v>
       </c>
       <c r="C8">
-        <v>5010849005568</v>
+        <v>4423021494272</v>
       </c>
       <c r="D8">
-        <v>0.497</v>
+        <v>0.189</v>
       </c>
       <c r="E8">
-        <v>115.46</v>
+        <v>461.82</v>
       </c>
       <c r="F8">
-        <v>3.1682353264001303E-2</v>
+        <v>3.2827694057435297E-2</v>
       </c>
       <c r="H8">
-        <v>269096300000</v>
+        <v>198142000000</v>
       </c>
       <c r="I8">
-        <v>3795241000000</v>
+        <v>1319718000000</v>
       </c>
       <c r="K8">
-        <v>1324089200000</v>
+        <v>870000000</v>
       </c>
       <c r="L8">
-        <v>33308400000</v>
+        <v>1942000000</v>
       </c>
       <c r="M8">
-        <v>58914000000</v>
+        <v>51198000000</v>
       </c>
       <c r="N8">
-        <v>235787900000</v>
+        <v>196200000000</v>
       </c>
       <c r="O8">
         <v>6.5000000000000002E-2</v>
@@ -1563,16 +1563,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q8">
-        <v>9.7305000000000003E-2</v>
+        <v>7.7285000000000006E-2</v>
       </c>
       <c r="R8">
-        <v>2.5155707032426498E-2</v>
+        <v>2.23218390804597</v>
       </c>
       <c r="S8">
-        <v>0.249860149736267</v>
+        <v>0.26094801223241498</v>
       </c>
       <c r="T8">
-        <v>8.0911068749621895E-2</v>
+        <v>7.7594230235871697E-2</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1601,34 +1601,37 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>908.65</v>
+        <v>3635.1</v>
       </c>
       <c r="C9">
-        <v>5647177875456</v>
+        <v>4999571046400</v>
       </c>
       <c r="D9">
-        <v>0.47599999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="E9">
-        <v>28.08</v>
+        <v>115.46</v>
       </c>
       <c r="F9">
-        <v>3.0902987949155299E-2</v>
+        <v>3.1762537481774898E-2</v>
+      </c>
+      <c r="H9">
+        <v>269096300000</v>
       </c>
       <c r="I9">
-        <v>4661268300000</v>
+        <v>3795241000000</v>
       </c>
       <c r="K9">
-        <v>2753601500000</v>
+        <v>1324089200000</v>
       </c>
       <c r="L9">
-        <v>247707900000</v>
+        <v>33308400000</v>
       </c>
       <c r="M9">
-        <v>53001500000</v>
+        <v>58914000000</v>
       </c>
       <c r="N9">
-        <v>220796300000</v>
+        <v>235787900000</v>
       </c>
       <c r="O9">
         <v>6.5000000000000002E-2</v>
@@ -1637,16 +1640,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q9">
-        <v>9.5939999999999998E-2</v>
+        <v>9.7305000000000003E-2</v>
       </c>
       <c r="R9">
-        <v>8.9957788009630293E-2</v>
+        <v>2.5155707032426498E-2</v>
       </c>
       <c r="S9">
-        <v>0.24004704788984199</v>
+        <v>0.249860149736267</v>
       </c>
       <c r="T9">
-        <v>8.6901055558030196E-2</v>
+        <v>8.0881830922154799E-2</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1675,37 +1678,34 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>2580.1</v>
+        <v>905.2</v>
       </c>
       <c r="C10">
-        <v>2473727623168</v>
+        <v>5625736593408</v>
       </c>
       <c r="D10">
-        <v>0.39100000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="E10">
-        <v>37.42</v>
+        <v>28.08</v>
       </c>
       <c r="F10">
-        <v>1.4503313825045499E-2</v>
-      </c>
-      <c r="H10">
-        <v>53300900000</v>
+        <v>3.1020768890852798E-2</v>
       </c>
       <c r="I10">
-        <v>303713700000</v>
+        <v>4661268300000</v>
       </c>
       <c r="K10">
-        <v>22902900000</v>
+        <v>2753601500000</v>
       </c>
       <c r="L10">
-        <v>2270200000</v>
+        <v>247707900000</v>
       </c>
       <c r="M10">
-        <v>13933600000</v>
+        <v>53001500000</v>
       </c>
       <c r="N10">
-        <v>51030700000</v>
+        <v>220796300000</v>
       </c>
       <c r="O10">
         <v>6.5000000000000002E-2</v>
@@ -1714,16 +1714,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q10">
-        <v>9.0414999999999995E-2</v>
+        <v>9.5939999999999998E-2</v>
       </c>
       <c r="R10">
-        <v>9.9122818507699897E-2</v>
+        <v>8.9957788009630293E-2</v>
       </c>
       <c r="S10">
-        <v>0.27304348166887699</v>
+        <v>0.24004704788984199</v>
       </c>
       <c r="T10">
-        <v>9.0246601427730999E-2</v>
+        <v>8.6877926457015794E-2</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1751,23 +1751,38 @@
       <c r="A11" t="s">
         <v>36</v>
       </c>
+      <c r="B11">
+        <v>2587.4</v>
+      </c>
+      <c r="C11">
+        <v>2480726605824</v>
+      </c>
+      <c r="D11">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E11">
+        <v>37.42</v>
+      </c>
+      <c r="F11">
+        <v>1.446239468192E-2</v>
+      </c>
       <c r="H11">
-        <v>661270000000</v>
+        <v>53300900000</v>
       </c>
       <c r="I11">
-        <v>1596290000000</v>
+        <v>303713700000</v>
       </c>
       <c r="K11">
-        <v>93920000000</v>
+        <v>22902900000</v>
       </c>
       <c r="L11">
-        <v>7960000000</v>
+        <v>2270200000</v>
       </c>
       <c r="M11">
-        <v>165340000000</v>
+        <v>13933600000</v>
       </c>
       <c r="N11">
-        <v>653310000000</v>
+        <v>51030700000</v>
       </c>
       <c r="O11">
         <v>6.5000000000000002E-2</v>
@@ -1776,16 +1791,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q11">
-        <v>0.13</v>
+        <v>9.0414999999999995E-2</v>
       </c>
       <c r="R11">
-        <v>8.47529812606473E-2</v>
+        <v>9.9122818507699897E-2</v>
       </c>
       <c r="S11">
-        <v>0.25308046715954102</v>
+        <v>0.27304348166887699</v>
       </c>
       <c r="T11">
-        <v>6.3303657170038802E-2</v>
+        <v>9.0247072191749295E-2</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -1829,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="b">
         <v>1</v>
